--- a/ExcelFiles/Usage_MeasureGroups_Vs_Dimensions.xlsx
+++ b/ExcelFiles/Usage_MeasureGroups_Vs_Dimensions.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_car\CarilionCube\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A8EA46-E94C-4166-AEE6-3FBE15D01A03}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784" xr2:uid="{95D54D7A-3670-4118-84AA-C9955F4278B9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17850" windowHeight="2580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3598" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="286">
   <si>
     <t>cube_name</t>
   </si>
@@ -888,7 +887,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -982,17 +981,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC7593B3-82DA-4538-95D9-FE3B9A02988D}" name="Table1" displayName="Table1" ref="A1:E885" totalsRowShown="0">
-  <autoFilter ref="A1:E885" xr:uid="{C54C9D40-3596-4DF3-B731-A860837CBA62}"/>
-  <sortState ref="A2:E885">
-    <sortCondition ref="D1:D885"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E885" totalsRowShown="0">
+  <autoFilter ref="A1:E885"/>
+  <sortState ref="A22:E875">
+    <sortCondition ref="C1:C885"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{68118719-4749-41A3-A651-796693A12A35}" name="cube_name"/>
-    <tableColumn id="2" xr3:uid="{38CDF259-1E64-4ACC-A8E9-FC96A277B6C3}" name="measuregroup_name"/>
-    <tableColumn id="4" xr3:uid="{455CB16F-BB1E-48D9-AE63-52D61BA51783}" name="dimension_unique_name"/>
-    <tableColumn id="8" xr3:uid="{AECB79E6-418B-46B3-B575-30198381F253}" name="Use This One"/>
-    <tableColumn id="6" xr3:uid="{3B11E677-9F47-46D6-9893-6D87A7B83F30}" name="dimension_cardinality"/>
+    <tableColumn id="1" name="cube_name"/>
+    <tableColumn id="2" name="measuregroup_name"/>
+    <tableColumn id="4" name="dimension_unique_name"/>
+    <tableColumn id="8" name="Use This One"/>
+    <tableColumn id="6" name="dimension_cardinality"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1294,23 +1293,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08D804E-1987-4F2C-8E98-7E5DD06CADDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1337,14 +1336,14 @@
       <c r="C2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>285</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1354,14 +1353,14 @@
       <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>285</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1371,14 +1370,12 @@
       <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>285</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1388,14 +1385,11 @@
       <c r="C5" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1412,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1429,7 +1423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1446,7 +1440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1463,7 +1457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1473,14 +1467,11 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>285</v>
-      </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1490,14 +1481,11 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
-        <v>285</v>
-      </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1507,14 +1495,11 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
-        <v>285</v>
-      </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1531,7 +1516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1548,7 +1533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1565,7 +1550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1575,14 +1560,12 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
-        <v>285</v>
-      </c>
+      <c r="D16"/>
       <c r="E16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1592,14 +1575,12 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
-        <v>285</v>
-      </c>
+      <c r="D17"/>
       <c r="E17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1616,7 +1597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1633,7 +1614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1643,14 +1624,12 @@
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" t="s">
-        <v>285</v>
-      </c>
+      <c r="D20"/>
       <c r="E20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1660,14 +1639,12 @@
       <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D21" t="s">
-        <v>285</v>
-      </c>
+      <c r="D21"/>
       <c r="E21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1675,16 +1652,14 @@
         <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>285</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D22"/>
       <c r="E22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1692,16 +1667,14 @@
         <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>285</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D23"/>
       <c r="E23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1709,16 +1682,14 @@
         <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>285</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D24"/>
       <c r="E24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1726,16 +1697,14 @@
         <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>285</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D25"/>
       <c r="E25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1743,16 +1712,14 @@
         <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>285</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D26"/>
       <c r="E26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1762,14 +1729,12 @@
       <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D27" t="s">
-        <v>285</v>
-      </c>
+      <c r="D27"/>
       <c r="E27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1779,14 +1744,12 @@
       <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="D28" t="s">
-        <v>285</v>
-      </c>
+      <c r="D28"/>
       <c r="E28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1796,14 +1759,12 @@
       <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D29" t="s">
-        <v>285</v>
-      </c>
+      <c r="D29"/>
       <c r="E29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1813,14 +1774,12 @@
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D30" t="s">
-        <v>285</v>
-      </c>
+      <c r="D30"/>
       <c r="E30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1830,14 +1789,11 @@
       <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="D31" t="s">
-        <v>285</v>
-      </c>
       <c r="E31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1847,14 +1803,11 @@
       <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D32" t="s">
-        <v>285</v>
-      </c>
       <c r="E32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1864,14 +1817,11 @@
       <c r="C33" t="s">
         <v>7</v>
       </c>
-      <c r="D33" t="s">
-        <v>285</v>
-      </c>
       <c r="E33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1888,7 +1838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1905,7 +1855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1922,7 +1872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1939,7 +1889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1956,7 +1906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1966,14 +1916,12 @@
       <c r="C39" t="s">
         <v>7</v>
       </c>
-      <c r="D39" t="s">
-        <v>285</v>
-      </c>
+      <c r="D39"/>
       <c r="E39" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1983,14 +1931,12 @@
       <c r="C40" t="s">
         <v>7</v>
       </c>
-      <c r="D40" t="s">
-        <v>285</v>
-      </c>
+      <c r="D40"/>
       <c r="E40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2000,14 +1946,12 @@
       <c r="C41" t="s">
         <v>7</v>
       </c>
-      <c r="D41" t="s">
-        <v>285</v>
-      </c>
+      <c r="D41"/>
       <c r="E41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2024,7 +1968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2041,7 +1985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2049,16 +1993,14 @@
         <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" t="s">
-        <v>285</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D44"/>
       <c r="E44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2066,16 +2008,14 @@
         <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" t="s">
-        <v>285</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D45"/>
       <c r="E45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2083,16 +2023,14 @@
         <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" t="s">
-        <v>285</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D46"/>
       <c r="E46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2100,16 +2038,14 @@
         <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" t="s">
-        <v>285</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D47"/>
       <c r="E47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2117,16 +2053,14 @@
         <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" t="s">
-        <v>285</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D48"/>
       <c r="E48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2136,14 +2070,12 @@
       <c r="C49" t="s">
         <v>107</v>
       </c>
-      <c r="D49" t="s">
-        <v>285</v>
-      </c>
+      <c r="D49"/>
       <c r="E49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -2160,7 +2092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2177,7 +2109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2194,7 +2126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2204,14 +2136,12 @@
       <c r="C53" t="s">
         <v>98</v>
       </c>
-      <c r="D53" t="s">
-        <v>285</v>
-      </c>
+      <c r="D53"/>
       <c r="E53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2221,14 +2151,12 @@
       <c r="C54" t="s">
         <v>98</v>
       </c>
-      <c r="D54" t="s">
-        <v>285</v>
-      </c>
+      <c r="D54"/>
       <c r="E54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2238,14 +2166,12 @@
       <c r="C55" t="s">
         <v>98</v>
       </c>
-      <c r="D55" t="s">
-        <v>285</v>
-      </c>
+      <c r="D55"/>
       <c r="E55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -2262,7 +2188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -2279,7 +2205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -2296,7 +2222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2311,7 +2237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -2326,7 +2252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -2341,7 +2267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -2356,7 +2282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2371,7 +2297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -2386,7 +2312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2401,7 +2327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -2416,7 +2342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -2431,7 +2357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -2446,7 +2372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -2461,7 +2387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -2476,7 +2402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -2491,7 +2417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -2506,7 +2432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -2521,7 +2447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -2529,14 +2455,14 @@
         <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -2544,14 +2470,14 @@
         <v>119</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -2559,14 +2485,14 @@
         <v>120</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D76"/>
       <c r="E76" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -2581,7 +2507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -2589,14 +2515,14 @@
         <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2611,7 +2537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -2626,7 +2552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2634,14 +2560,14 @@
         <v>137</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D81"/>
       <c r="E81" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2656,7 +2582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -2671,7 +2597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -2686,7 +2612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -2701,7 +2627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -2716,7 +2642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2731,7 +2657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2746,7 +2672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2761,7 +2687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -2776,7 +2702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2791,7 +2717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -2806,7 +2732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2821,7 +2747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -2836,7 +2762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -2851,7 +2777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -2866,7 +2792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -2881,7 +2807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2896,7 +2822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -2911,7 +2837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -2926,7 +2852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -2941,7 +2867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -2956,7 +2882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -2971,7 +2897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -2986,7 +2912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -3001,7 +2927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -3016,7 +2942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -3024,14 +2950,14 @@
         <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="D107"/>
       <c r="E107" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -3039,14 +2965,14 @@
         <v>119</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="D108"/>
       <c r="E108" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -3054,44 +2980,44 @@
         <v>120</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="D109"/>
       <c r="E109" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="D110"/>
       <c r="E110" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="D111"/>
       <c r="E111" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -3106,7 +3032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3121,7 +3047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -3136,7 +3062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -3151,7 +3077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -3166,7 +3092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -3181,7 +3107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -3196,7 +3122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -3211,7 +3137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -3226,7 +3152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -3241,7 +3167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -3256,7 +3182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -3271,7 +3197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -3286,7 +3212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -3301,7 +3227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -3316,7 +3242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -3331,7 +3257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -3346,7 +3272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -3361,7 +3287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -3376,7 +3302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -3386,12 +3312,14 @@
       <c r="C131" t="s">
         <v>23</v>
       </c>
-      <c r="D131"/>
+      <c r="D131" t="s">
+        <v>285</v>
+      </c>
       <c r="E131" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -3401,12 +3329,14 @@
       <c r="C132" t="s">
         <v>23</v>
       </c>
-      <c r="D132"/>
+      <c r="D132" t="s">
+        <v>285</v>
+      </c>
       <c r="E132" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -3416,12 +3346,14 @@
       <c r="C133" t="s">
         <v>23</v>
       </c>
-      <c r="D133"/>
+      <c r="D133" t="s">
+        <v>285</v>
+      </c>
       <c r="E133" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -3436,7 +3368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -3451,7 +3383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -3466,7 +3398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -3481,7 +3413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -3496,7 +3428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -3511,7 +3443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -3526,7 +3458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -3541,7 +3473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -3556,7 +3488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -3571,7 +3503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -3586,7 +3518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -3601,7 +3533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -3616,7 +3548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -3631,7 +3563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -3646,7 +3578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -3661,7 +3593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -3676,7 +3608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -3691,7 +3623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -3706,7 +3638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -3721,7 +3653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -3736,7 +3668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -3751,7 +3683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -3766,7 +3698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -3781,7 +3713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -3796,7 +3728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -3811,7 +3743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -3826,7 +3758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -3841,7 +3773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3856,7 +3788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -3871,7 +3803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -3886,7 +3818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -3901,7 +3833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -3916,7 +3848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -3931,7 +3863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -3946,7 +3878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -3961,7 +3893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -3976,7 +3908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -3991,127 +3923,127 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C172" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D172"/>
       <c r="E172" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>4</v>
       </c>
       <c r="B173" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C173" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D173"/>
       <c r="E173" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>4</v>
       </c>
       <c r="B174" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C174" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D174"/>
       <c r="E174" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C175" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D175"/>
       <c r="E175" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C176" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D176"/>
       <c r="E176" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C177" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D177"/>
       <c r="E177" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>4</v>
       </c>
       <c r="B178" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C178" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D178"/>
       <c r="E178" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C179" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D179"/>
       <c r="E179" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -4126,37 +4058,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C181" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D181"/>
       <c r="E181" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C182" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D182"/>
       <c r="E182" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -4171,37 +4103,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>4</v>
       </c>
       <c r="B184" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C184" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D184"/>
       <c r="E184" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C185" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D185"/>
       <c r="E185" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -4216,37 +4148,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>4</v>
       </c>
       <c r="B187" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C187" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D187"/>
       <c r="E187" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C188" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D188"/>
       <c r="E188" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -4261,37 +4193,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>4</v>
       </c>
       <c r="B190" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C190" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D190"/>
       <c r="E190" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>4</v>
       </c>
       <c r="B191" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="C191" t="s">
-        <v>125</v>
-      </c>
-      <c r="D191"/>
+        <v>107</v>
+      </c>
+      <c r="D191" t="s">
+        <v>285</v>
+      </c>
       <c r="E191" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -4306,37 +4240,41 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C193" t="s">
-        <v>126</v>
-      </c>
-      <c r="D193"/>
+        <v>107</v>
+      </c>
+      <c r="D193" t="s">
+        <v>285</v>
+      </c>
       <c r="E193" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>4</v>
       </c>
       <c r="B194" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C194" t="s">
-        <v>126</v>
-      </c>
-      <c r="D194"/>
+        <v>107</v>
+      </c>
+      <c r="D194" t="s">
+        <v>285</v>
+      </c>
       <c r="E194" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -4351,7 +4289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -4359,14 +4297,16 @@
         <v>121</v>
       </c>
       <c r="C196" t="s">
-        <v>127</v>
-      </c>
-      <c r="D196"/>
+        <v>107</v>
+      </c>
+      <c r="D196" t="s">
+        <v>285</v>
+      </c>
       <c r="E196" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -4374,14 +4314,16 @@
         <v>137</v>
       </c>
       <c r="C197" t="s">
-        <v>127</v>
-      </c>
-      <c r="D197"/>
+        <v>107</v>
+      </c>
+      <c r="D197" t="s">
+        <v>285</v>
+      </c>
       <c r="E197" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -4396,7 +4338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -4411,7 +4353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -4426,7 +4368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -4441,7 +4383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -4456,7 +4398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -4471,7 +4413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -4486,7 +4428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -4501,7 +4443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -4516,7 +4458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -4531,7 +4473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -4546,7 +4488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -4561,7 +4503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -4576,7 +4518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -4591,7 +4533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -4606,7 +4548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -4621,7 +4563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -4636,7 +4578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -4651,7 +4593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -4666,7 +4608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -4681,7 +4623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -4696,7 +4638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -4711,7 +4653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -4726,7 +4668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -4741,7 +4683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -4756,7 +4698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -4771,7 +4713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -4786,7 +4728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -4801,7 +4743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -4816,7 +4758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -4831,7 +4773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -4846,7 +4788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -4861,7 +4803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -4876,7 +4818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -4891,7 +4833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -4906,7 +4848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -4921,7 +4863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -4936,7 +4878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>4</v>
       </c>
@@ -4951,7 +4893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>4</v>
       </c>
@@ -4966,7 +4908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -4981,7 +4923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -4996,7 +4938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -5011,7 +4953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -5026,7 +4968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -5041,7 +4983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>4</v>
       </c>
@@ -5056,7 +4998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -5071,7 +5013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>4</v>
       </c>
@@ -5086,7 +5028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>4</v>
       </c>
@@ -5101,7 +5043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>4</v>
       </c>
@@ -5116,7 +5058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -5131,7 +5073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>4</v>
       </c>
@@ -5146,7 +5088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -5161,7 +5103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>4</v>
       </c>
@@ -5176,7 +5118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -5191,7 +5133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -5206,7 +5148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>4</v>
       </c>
@@ -5221,7 +5163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>4</v>
       </c>
@@ -5236,7 +5178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>4</v>
       </c>
@@ -5251,7 +5193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>4</v>
       </c>
@@ -5266,7 +5208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -5281,7 +5223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -5296,7 +5238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>4</v>
       </c>
@@ -5311,7 +5253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>4</v>
       </c>
@@ -5326,7 +5268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>4</v>
       </c>
@@ -5341,7 +5283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>4</v>
       </c>
@@ -5356,7 +5298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>4</v>
       </c>
@@ -5371,7 +5313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -5386,7 +5328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -5401,7 +5343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -5416,7 +5358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -5431,7 +5373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -5446,7 +5388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -5461,7 +5403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>4</v>
       </c>
@@ -5476,7 +5418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>4</v>
       </c>
@@ -5491,7 +5433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>4</v>
       </c>
@@ -5506,7 +5448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>4</v>
       </c>
@@ -5521,7 +5463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -5536,7 +5478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>4</v>
       </c>
@@ -5551,7 +5493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>4</v>
       </c>
@@ -5566,7 +5508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -5581,7 +5523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>4</v>
       </c>
@@ -5596,7 +5538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>4</v>
       </c>
@@ -5611,7 +5553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>4</v>
       </c>
@@ -5626,7 +5568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>4</v>
       </c>
@@ -5641,7 +5583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -5656,7 +5598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -5671,7 +5613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>4</v>
       </c>
@@ -5686,7 +5628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>4</v>
       </c>
@@ -5701,7 +5643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>4</v>
       </c>
@@ -5716,7 +5658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>4</v>
       </c>
@@ -5731,7 +5673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -5746,7 +5688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -5761,7 +5703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -5776,7 +5718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -5791,7 +5733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>4</v>
       </c>
@@ -5806,7 +5748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>4</v>
       </c>
@@ -5821,7 +5763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>4</v>
       </c>
@@ -5836,7 +5778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>4</v>
       </c>
@@ -5851,7 +5793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>4</v>
       </c>
@@ -5866,7 +5808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -5881,7 +5823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -5896,7 +5838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -5911,7 +5853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -5926,7 +5868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>4</v>
       </c>
@@ -5941,7 +5883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>4</v>
       </c>
@@ -5956,7 +5898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>4</v>
       </c>
@@ -5971,7 +5913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>4</v>
       </c>
@@ -5986,7 +5928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>4</v>
       </c>
@@ -6001,7 +5943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>4</v>
       </c>
@@ -6016,7 +5958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>4</v>
       </c>
@@ -6031,7 +5973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>4</v>
       </c>
@@ -6046,7 +5988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>4</v>
       </c>
@@ -6061,7 +6003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>4</v>
       </c>
@@ -6076,7 +6018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>4</v>
       </c>
@@ -6091,7 +6033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>4</v>
       </c>
@@ -6106,7 +6048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>4</v>
       </c>
@@ -6121,7 +6063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>4</v>
       </c>
@@ -6136,7 +6078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -6151,7 +6093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>4</v>
       </c>
@@ -6166,7 +6108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -6181,7 +6123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>4</v>
       </c>
@@ -6196,7 +6138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>4</v>
       </c>
@@ -6211,7 +6153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>4</v>
       </c>
@@ -6226,7 +6168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>4</v>
       </c>
@@ -6241,7 +6183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -6256,7 +6198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>4</v>
       </c>
@@ -6271,7 +6213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>4</v>
       </c>
@@ -6286,7 +6228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>4</v>
       </c>
@@ -6301,7 +6243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>4</v>
       </c>
@@ -6316,7 +6258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>4</v>
       </c>
@@ -6331,7 +6273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>4</v>
       </c>
@@ -6346,7 +6288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>4</v>
       </c>
@@ -6361,7 +6303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>4</v>
       </c>
@@ -6376,7 +6318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>4</v>
       </c>
@@ -6391,7 +6333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>4</v>
       </c>
@@ -6406,7 +6348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>4</v>
       </c>
@@ -6421,7 +6363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>4</v>
       </c>
@@ -6436,7 +6378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>4</v>
       </c>
@@ -6451,7 +6393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>4</v>
       </c>
@@ -6466,7 +6408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>4</v>
       </c>
@@ -6481,7 +6423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>4</v>
       </c>
@@ -6496,7 +6438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>4</v>
       </c>
@@ -6511,7 +6453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>4</v>
       </c>
@@ -6526,7 +6468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>4</v>
       </c>
@@ -6541,7 +6483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>4</v>
       </c>
@@ -6556,7 +6498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>4</v>
       </c>
@@ -6571,7 +6513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>4</v>
       </c>
@@ -6586,7 +6528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>4</v>
       </c>
@@ -6601,7 +6543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>4</v>
       </c>
@@ -6616,7 +6558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>4</v>
       </c>
@@ -6631,7 +6573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>4</v>
       </c>
@@ -6646,7 +6588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>4</v>
       </c>
@@ -6661,7 +6603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>4</v>
       </c>
@@ -6676,7 +6618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>4</v>
       </c>
@@ -6691,7 +6633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>4</v>
       </c>
@@ -6706,7 +6648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>4</v>
       </c>
@@ -6721,7 +6663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -6736,7 +6678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>4</v>
       </c>
@@ -6751,7 +6693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>4</v>
       </c>
@@ -6766,7 +6708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>4</v>
       </c>
@@ -6781,7 +6723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>4</v>
       </c>
@@ -6796,7 +6738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>4</v>
       </c>
@@ -6811,7 +6753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>4</v>
       </c>
@@ -6826,7 +6768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>4</v>
       </c>
@@ -6841,7 +6783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>4</v>
       </c>
@@ -6856,7 +6798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>4</v>
       </c>
@@ -6871,7 +6813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>4</v>
       </c>
@@ -6886,7 +6828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>4</v>
       </c>
@@ -6901,7 +6843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>4</v>
       </c>
@@ -6916,7 +6858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>4</v>
       </c>
@@ -6931,7 +6873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>4</v>
       </c>
@@ -6946,7 +6888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>4</v>
       </c>
@@ -6961,7 +6903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>4</v>
       </c>
@@ -6976,7 +6918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>4</v>
       </c>
@@ -6991,7 +6933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>4</v>
       </c>
@@ -7006,7 +6948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>4</v>
       </c>
@@ -7021,7 +6963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>4</v>
       </c>
@@ -7036,7 +6978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>4</v>
       </c>
@@ -7051,7 +6993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>4</v>
       </c>
@@ -7066,7 +7008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>4</v>
       </c>
@@ -7081,7 +7023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -7096,7 +7038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>4</v>
       </c>
@@ -7111,7 +7053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>4</v>
       </c>
@@ -7126,7 +7068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>4</v>
       </c>
@@ -7141,7 +7083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>4</v>
       </c>
@@ -7156,7 +7098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>4</v>
       </c>
@@ -7171,7 +7113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>4</v>
       </c>
@@ -7186,7 +7128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>4</v>
       </c>
@@ -7201,7 +7143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -7216,7 +7158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>4</v>
       </c>
@@ -7231,7 +7173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>4</v>
       </c>
@@ -7246,7 +7188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>4</v>
       </c>
@@ -7261,7 +7203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>4</v>
       </c>
@@ -7276,7 +7218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>4</v>
       </c>
@@ -7291,7 +7233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>4</v>
       </c>
@@ -7306,7 +7248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>4</v>
       </c>
@@ -7321,7 +7263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>4</v>
       </c>
@@ -7336,7 +7278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>4</v>
       </c>
@@ -7351,7 +7293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>4</v>
       </c>
@@ -7366,7 +7308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>4</v>
       </c>
@@ -7381,7 +7323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>4</v>
       </c>
@@ -7396,7 +7338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>4</v>
       </c>
@@ -7411,7 +7353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>4</v>
       </c>
@@ -7426,7 +7368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>4</v>
       </c>
@@ -7441,7 +7383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>4</v>
       </c>
@@ -7456,7 +7398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>4</v>
       </c>
@@ -7471,7 +7413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>4</v>
       </c>
@@ -7486,7 +7428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>4</v>
       </c>
@@ -7501,7 +7443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>4</v>
       </c>
@@ -7516,7 +7458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>4</v>
       </c>
@@ -7531,7 +7473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>4</v>
       </c>
@@ -7546,7 +7488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>4</v>
       </c>
@@ -7561,7 +7503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>4</v>
       </c>
@@ -7576,7 +7518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>4</v>
       </c>
@@ -7591,7 +7533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>4</v>
       </c>
@@ -7606,7 +7548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>4</v>
       </c>
@@ -7621,7 +7563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>4</v>
       </c>
@@ -7636,7 +7578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>4</v>
       </c>
@@ -7651,7 +7593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>4</v>
       </c>
@@ -7666,7 +7608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>4</v>
       </c>
@@ -7681,7 +7623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>4</v>
       </c>
@@ -7696,7 +7638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>4</v>
       </c>
@@ -7711,7 +7653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>4</v>
       </c>
@@ -7726,7 +7668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>4</v>
       </c>
@@ -7741,7 +7683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>4</v>
       </c>
@@ -7756,7 +7698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>4</v>
       </c>
@@ -7771,7 +7713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>4</v>
       </c>
@@ -7786,7 +7728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>4</v>
       </c>
@@ -7801,7 +7743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>4</v>
       </c>
@@ -7816,7 +7758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>4</v>
       </c>
@@ -7831,7 +7773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>4</v>
       </c>
@@ -7846,7 +7788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>4</v>
       </c>
@@ -7861,7 +7803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>4</v>
       </c>
@@ -7876,7 +7818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>4</v>
       </c>
@@ -7891,7 +7833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>4</v>
       </c>
@@ -7906,7 +7848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>4</v>
       </c>
@@ -7921,7 +7863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>4</v>
       </c>
@@ -7936,7 +7878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>4</v>
       </c>
@@ -7951,7 +7893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>4</v>
       </c>
@@ -7966,7 +7908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>4</v>
       </c>
@@ -7981,7 +7923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>4</v>
       </c>
@@ -7996,7 +7938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>4</v>
       </c>
@@ -8011,7 +7953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>4</v>
       </c>
@@ -8026,7 +7968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>4</v>
       </c>
@@ -8041,7 +7983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>4</v>
       </c>
@@ -8056,7 +7998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>4</v>
       </c>
@@ -8071,7 +8013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>4</v>
       </c>
@@ -8086,7 +8028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>4</v>
       </c>
@@ -8101,7 +8043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>4</v>
       </c>
@@ -8116,7 +8058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>4</v>
       </c>
@@ -8131,7 +8073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>4</v>
       </c>
@@ -8146,7 +8088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>4</v>
       </c>
@@ -8161,7 +8103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>4</v>
       </c>
@@ -8176,7 +8118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>4</v>
       </c>
@@ -8191,7 +8133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>4</v>
       </c>
@@ -8206,7 +8148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>4</v>
       </c>
@@ -8221,7 +8163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>4</v>
       </c>
@@ -8236,7 +8178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>4</v>
       </c>
@@ -8251,7 +8193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>4</v>
       </c>
@@ -8266,7 +8208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>4</v>
       </c>
@@ -8281,7 +8223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>4</v>
       </c>
@@ -8296,7 +8238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>4</v>
       </c>
@@ -8311,7 +8253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>4</v>
       </c>
@@ -8326,7 +8268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>4</v>
       </c>
@@ -8341,7 +8283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>4</v>
       </c>
@@ -8356,7 +8298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>4</v>
       </c>
@@ -8371,7 +8313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>4</v>
       </c>
@@ -8386,7 +8328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>4</v>
       </c>
@@ -8401,7 +8343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>4</v>
       </c>
@@ -8416,7 +8358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>4</v>
       </c>
@@ -8431,7 +8373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>4</v>
       </c>
@@ -8446,7 +8388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>4</v>
       </c>
@@ -8461,7 +8403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>4</v>
       </c>
@@ -8476,7 +8418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>4</v>
       </c>
@@ -8491,7 +8433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>4</v>
       </c>
@@ -8506,7 +8448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>4</v>
       </c>
@@ -8521,7 +8463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>4</v>
       </c>
@@ -8536,7 +8478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>4</v>
       </c>
@@ -8551,7 +8493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>4</v>
       </c>
@@ -8566,7 +8508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>4</v>
       </c>
@@ -8581,7 +8523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>4</v>
       </c>
@@ -8596,7 +8538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>4</v>
       </c>
@@ -8611,7 +8553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>4</v>
       </c>
@@ -8626,7 +8568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>4</v>
       </c>
@@ -8641,7 +8583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>4</v>
       </c>
@@ -8656,7 +8598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>4</v>
       </c>
@@ -8671,7 +8613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>4</v>
       </c>
@@ -8686,7 +8628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>4</v>
       </c>
@@ -8701,7 +8643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>4</v>
       </c>
@@ -8716,7 +8658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>4</v>
       </c>
@@ -8731,7 +8673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>4</v>
       </c>
@@ -8746,7 +8688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>4</v>
       </c>
@@ -8761,7 +8703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>4</v>
       </c>
@@ -8776,7 +8718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>4</v>
       </c>
@@ -8791,7 +8733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>4</v>
       </c>
@@ -8806,7 +8748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>4</v>
       </c>
@@ -8821,7 +8763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>4</v>
       </c>
@@ -8836,7 +8778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>4</v>
       </c>
@@ -8851,7 +8793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>4</v>
       </c>
@@ -8866,7 +8808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>4</v>
       </c>
@@ -8881,7 +8823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>4</v>
       </c>
@@ -8896,7 +8838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>4</v>
       </c>
@@ -8911,7 +8853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>4</v>
       </c>
@@ -8926,7 +8868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>4</v>
       </c>
@@ -8941,7 +8883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>4</v>
       </c>
@@ -8956,7 +8898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>4</v>
       </c>
@@ -8971,7 +8913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>4</v>
       </c>
@@ -8986,7 +8928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>4</v>
       </c>
@@ -9001,7 +8943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>4</v>
       </c>
@@ -9016,7 +8958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>4</v>
       </c>
@@ -9031,7 +8973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>4</v>
       </c>
@@ -9046,7 +8988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>4</v>
       </c>
@@ -9061,7 +9003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>4</v>
       </c>
@@ -9076,7 +9018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>4</v>
       </c>
@@ -9091,7 +9033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>4</v>
       </c>
@@ -9106,7 +9048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>4</v>
       </c>
@@ -9121,7 +9063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>4</v>
       </c>
@@ -9136,7 +9078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>4</v>
       </c>
@@ -9151,7 +9093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>4</v>
       </c>
@@ -9166,7 +9108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>4</v>
       </c>
@@ -9181,7 +9123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>4</v>
       </c>
@@ -9191,12 +9133,14 @@
       <c r="C518" t="s">
         <v>152</v>
       </c>
-      <c r="D518"/>
+      <c r="D518" t="s">
+        <v>285</v>
+      </c>
       <c r="E518" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>4</v>
       </c>
@@ -9206,12 +9150,14 @@
       <c r="C519" t="s">
         <v>152</v>
       </c>
-      <c r="D519"/>
+      <c r="D519" t="s">
+        <v>285</v>
+      </c>
       <c r="E519" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>4</v>
       </c>
@@ -9221,12 +9167,14 @@
       <c r="C520" t="s">
         <v>152</v>
       </c>
-      <c r="D520"/>
+      <c r="D520" t="s">
+        <v>285</v>
+      </c>
       <c r="E520" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>4</v>
       </c>
@@ -9241,7 +9189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>4</v>
       </c>
@@ -9256,7 +9204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>4</v>
       </c>
@@ -9271,7 +9219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>4</v>
       </c>
@@ -9286,7 +9234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>4</v>
       </c>
@@ -9301,7 +9249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>4</v>
       </c>
@@ -9316,7 +9264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>4</v>
       </c>
@@ -9331,7 +9279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>4</v>
       </c>
@@ -9346,7 +9294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>4</v>
       </c>
@@ -9361,7 +9309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>4</v>
       </c>
@@ -9376,7 +9324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>4</v>
       </c>
@@ -9391,7 +9339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>4</v>
       </c>
@@ -9406,7 +9354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>4</v>
       </c>
@@ -9421,7 +9369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>4</v>
       </c>
@@ -9436,7 +9384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>4</v>
       </c>
@@ -9451,7 +9399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>4</v>
       </c>
@@ -9466,7 +9414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>4</v>
       </c>
@@ -9481,7 +9429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>4</v>
       </c>
@@ -9496,7 +9444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>4</v>
       </c>
@@ -9511,7 +9459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>4</v>
       </c>
@@ -9526,7 +9474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>4</v>
       </c>
@@ -9541,7 +9489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>4</v>
       </c>
@@ -9556,7 +9504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>4</v>
       </c>
@@ -9571,7 +9519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>4</v>
       </c>
@@ -9586,7 +9534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>4</v>
       </c>
@@ -9601,7 +9549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>4</v>
       </c>
@@ -9616,7 +9564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>4</v>
       </c>
@@ -9631,7 +9579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>4</v>
       </c>
@@ -9646,7 +9594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>4</v>
       </c>
@@ -9661,7 +9609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>4</v>
       </c>
@@ -9676,7 +9624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>4</v>
       </c>
@@ -9691,7 +9639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>4</v>
       </c>
@@ -9706,7 +9654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>4</v>
       </c>
@@ -9721,7 +9669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>4</v>
       </c>
@@ -9736,7 +9684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>4</v>
       </c>
@@ -9751,7 +9699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>4</v>
       </c>
@@ -9766,7 +9714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>4</v>
       </c>
@@ -9781,7 +9729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>4</v>
       </c>
@@ -9796,7 +9744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>4</v>
       </c>
@@ -9811,7 +9759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>4</v>
       </c>
@@ -9826,7 +9774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>4</v>
       </c>
@@ -9841,7 +9789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>4</v>
       </c>
@@ -9856,7 +9804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>4</v>
       </c>
@@ -9871,7 +9819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>4</v>
       </c>
@@ -9886,7 +9834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>4</v>
       </c>
@@ -9901,7 +9849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>4</v>
       </c>
@@ -9916,7 +9864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>4</v>
       </c>
@@ -9931,7 +9879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>4</v>
       </c>
@@ -9946,7 +9894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>4</v>
       </c>
@@ -9961,7 +9909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>4</v>
       </c>
@@ -9976,7 +9924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>4</v>
       </c>
@@ -9991,7 +9939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>4</v>
       </c>
@@ -10006,7 +9954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>4</v>
       </c>
@@ -10021,7 +9969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>4</v>
       </c>
@@ -10036,7 +9984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>4</v>
       </c>
@@ -10051,7 +9999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>4</v>
       </c>
@@ -10066,7 +10014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>4</v>
       </c>
@@ -10081,7 +10029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>4</v>
       </c>
@@ -10096,7 +10044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>4</v>
       </c>
@@ -10111,7 +10059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>4</v>
       </c>
@@ -10126,7 +10074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>4</v>
       </c>
@@ -10141,7 +10089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>4</v>
       </c>
@@ -10156,7 +10104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>4</v>
       </c>
@@ -10171,7 +10119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>4</v>
       </c>
@@ -10186,7 +10134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>4</v>
       </c>
@@ -10201,7 +10149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>4</v>
       </c>
@@ -10216,7 +10164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>4</v>
       </c>
@@ -10231,7 +10179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>4</v>
       </c>
@@ -10246,7 +10194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>4</v>
       </c>
@@ -10261,7 +10209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>4</v>
       </c>
@@ -10276,7 +10224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>4</v>
       </c>
@@ -10291,7 +10239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>4</v>
       </c>
@@ -10306,7 +10254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>4</v>
       </c>
@@ -10321,7 +10269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>4</v>
       </c>
@@ -10336,7 +10284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>4</v>
       </c>
@@ -10351,7 +10299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>4</v>
       </c>
@@ -10366,7 +10314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>4</v>
       </c>
@@ -10381,7 +10329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>4</v>
       </c>
@@ -10396,7 +10344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>4</v>
       </c>
@@ -10411,7 +10359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>4</v>
       </c>
@@ -10426,7 +10374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>4</v>
       </c>
@@ -10441,7 +10389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>4</v>
       </c>
@@ -10456,7 +10404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>4</v>
       </c>
@@ -10471,7 +10419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>4</v>
       </c>
@@ -10486,7 +10434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>4</v>
       </c>
@@ -10501,7 +10449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>4</v>
       </c>
@@ -10516,7 +10464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>4</v>
       </c>
@@ -10531,7 +10479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>4</v>
       </c>
@@ -10546,7 +10494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>4</v>
       </c>
@@ -10561,7 +10509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>4</v>
       </c>
@@ -10576,7 +10524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>4</v>
       </c>
@@ -10591,7 +10539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>4</v>
       </c>
@@ -10606,7 +10554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>4</v>
       </c>
@@ -10621,7 +10569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>4</v>
       </c>
@@ -10636,7 +10584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>4</v>
       </c>
@@ -10651,7 +10599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>4</v>
       </c>
@@ -10666,7 +10614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>4</v>
       </c>
@@ -10681,7 +10629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>4</v>
       </c>
@@ -10696,7 +10644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>4</v>
       </c>
@@ -10711,7 +10659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>4</v>
       </c>
@@ -10726,7 +10674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>4</v>
       </c>
@@ -10741,7 +10689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>4</v>
       </c>
@@ -10756,7 +10704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>4</v>
       </c>
@@ -10771,7 +10719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>4</v>
       </c>
@@ -10786,7 +10734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>4</v>
       </c>
@@ -10801,7 +10749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>4</v>
       </c>
@@ -10816,7 +10764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>4</v>
       </c>
@@ -10831,7 +10779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>4</v>
       </c>
@@ -10846,7 +10794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>4</v>
       </c>
@@ -10861,7 +10809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>4</v>
       </c>
@@ -10876,7 +10824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>4</v>
       </c>
@@ -10891,7 +10839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>4</v>
       </c>
@@ -10906,7 +10854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>4</v>
       </c>
@@ -10921,7 +10869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>4</v>
       </c>
@@ -10936,7 +10884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>4</v>
       </c>
@@ -10951,7 +10899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>4</v>
       </c>
@@ -10966,7 +10914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>4</v>
       </c>
@@ -10981,7 +10929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>4</v>
       </c>
@@ -10996,7 +10944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>4</v>
       </c>
@@ -11011,7 +10959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>4</v>
       </c>
@@ -11026,7 +10974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>4</v>
       </c>
@@ -11041,7 +10989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>4</v>
       </c>
@@ -11056,7 +11004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>4</v>
       </c>
@@ -11071,7 +11019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>4</v>
       </c>
@@ -11086,7 +11034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>4</v>
       </c>
@@ -11101,7 +11049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>4</v>
       </c>
@@ -11116,7 +11064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>4</v>
       </c>
@@ -11131,7 +11079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>4</v>
       </c>
@@ -11146,7 +11094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>4</v>
       </c>
@@ -11161,7 +11109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>4</v>
       </c>
@@ -11176,7 +11124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>4</v>
       </c>
@@ -11191,7 +11139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>4</v>
       </c>
@@ -11206,7 +11154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>4</v>
       </c>
@@ -11221,7 +11169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>4</v>
       </c>
@@ -11236,7 +11184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>4</v>
       </c>
@@ -11251,7 +11199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>4</v>
       </c>
@@ -11266,7 +11214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>4</v>
       </c>
@@ -11281,7 +11229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>4</v>
       </c>
@@ -11296,7 +11244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>4</v>
       </c>
@@ -11311,7 +11259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>4</v>
       </c>
@@ -11326,7 +11274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>4</v>
       </c>
@@ -11341,7 +11289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>4</v>
       </c>
@@ -11356,7 +11304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>4</v>
       </c>
@@ -11371,7 +11319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>4</v>
       </c>
@@ -11386,7 +11334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>4</v>
       </c>
@@ -11401,7 +11349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>4</v>
       </c>
@@ -11416,7 +11364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>4</v>
       </c>
@@ -11431,7 +11379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>4</v>
       </c>
@@ -11446,7 +11394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>4</v>
       </c>
@@ -11461,7 +11409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>4</v>
       </c>
@@ -11476,7 +11424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>4</v>
       </c>
@@ -11491,7 +11439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>4</v>
       </c>
@@ -11506,7 +11454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>4</v>
       </c>
@@ -11521,7 +11469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>4</v>
       </c>
@@ -11536,7 +11484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>4</v>
       </c>
@@ -11551,7 +11499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>4</v>
       </c>
@@ -11566,7 +11514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>4</v>
       </c>
@@ -11581,7 +11529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>4</v>
       </c>
@@ -11596,7 +11544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>4</v>
       </c>
@@ -11611,7 +11559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>4</v>
       </c>
@@ -11626,7 +11574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>4</v>
       </c>
@@ -11641,7 +11589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>4</v>
       </c>
@@ -11656,7 +11604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>4</v>
       </c>
@@ -11671,7 +11619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>4</v>
       </c>
@@ -11686,7 +11634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>4</v>
       </c>
@@ -11701,7 +11649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>4</v>
       </c>
@@ -11716,7 +11664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>4</v>
       </c>
@@ -11731,7 +11679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>4</v>
       </c>
@@ -11746,7 +11694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>4</v>
       </c>
@@ -11761,7 +11709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>4</v>
       </c>
@@ -11776,7 +11724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>4</v>
       </c>
@@ -11791,7 +11739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>4</v>
       </c>
@@ -11806,7 +11754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>4</v>
       </c>
@@ -11821,7 +11769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>4</v>
       </c>
@@ -11836,7 +11784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>4</v>
       </c>
@@ -11851,7 +11799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>4</v>
       </c>
@@ -11866,7 +11814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>4</v>
       </c>
@@ -11881,7 +11829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>4</v>
       </c>
@@ -11896,7 +11844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>4</v>
       </c>
@@ -11911,7 +11859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>4</v>
       </c>
@@ -11926,7 +11874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>4</v>
       </c>
@@ -11941,7 +11889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>4</v>
       </c>
@@ -11956,7 +11904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>4</v>
       </c>
@@ -11971,7 +11919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>4</v>
       </c>
@@ -11986,7 +11934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>4</v>
       </c>
@@ -12001,7 +11949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>4</v>
       </c>
@@ -12016,7 +11964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>4</v>
       </c>
@@ -12031,7 +11979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>4</v>
       </c>
@@ -12046,7 +11994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>4</v>
       </c>
@@ -12061,7 +12009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>4</v>
       </c>
@@ -12076,7 +12024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>4</v>
       </c>
@@ -12091,7 +12039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>4</v>
       </c>
@@ -12106,7 +12054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>4</v>
       </c>
@@ -12121,7 +12069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>4</v>
       </c>
@@ -12136,7 +12084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>4</v>
       </c>
@@ -12151,7 +12099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>4</v>
       </c>
@@ -12166,7 +12114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>4</v>
       </c>
@@ -12181,7 +12129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>4</v>
       </c>
@@ -12196,7 +12144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>4</v>
       </c>
@@ -12211,7 +12159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>4</v>
       </c>
@@ -12226,7 +12174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>4</v>
       </c>
@@ -12241,7 +12189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>4</v>
       </c>
@@ -12256,7 +12204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>4</v>
       </c>
@@ -12271,7 +12219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>4</v>
       </c>
@@ -12286,7 +12234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>4</v>
       </c>
@@ -12301,7 +12249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>4</v>
       </c>
@@ -12316,7 +12264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>4</v>
       </c>
@@ -12331,7 +12279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>4</v>
       </c>
@@ -12346,7 +12294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>4</v>
       </c>
@@ -12361,7 +12309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>4</v>
       </c>
@@ -12376,7 +12324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>4</v>
       </c>
@@ -12391,7 +12339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>4</v>
       </c>
@@ -12406,7 +12354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>4</v>
       </c>
@@ -12421,7 +12369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>4</v>
       </c>
@@ -12436,7 +12384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>4</v>
       </c>
@@ -12451,7 +12399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>4</v>
       </c>
@@ -12466,7 +12414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>4</v>
       </c>
@@ -12481,7 +12429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>4</v>
       </c>
@@ -12496,7 +12444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>4</v>
       </c>
@@ -12511,7 +12459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>4</v>
       </c>
@@ -12526,7 +12474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>4</v>
       </c>
@@ -12541,7 +12489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>4</v>
       </c>
@@ -12556,7 +12504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>4</v>
       </c>
@@ -12571,7 +12519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>4</v>
       </c>
@@ -12586,7 +12534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>4</v>
       </c>
@@ -12601,7 +12549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>4</v>
       </c>
@@ -12616,7 +12564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>4</v>
       </c>
@@ -12631,7 +12579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>4</v>
       </c>
@@ -12646,7 +12594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>4</v>
       </c>
@@ -12661,7 +12609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>4</v>
       </c>
@@ -12676,7 +12624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>4</v>
       </c>
@@ -12691,7 +12639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>4</v>
       </c>
@@ -12706,7 +12654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>4</v>
       </c>
@@ -12721,7 +12669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>4</v>
       </c>
@@ -12736,7 +12684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>4</v>
       </c>
@@ -12751,7 +12699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>4</v>
       </c>
@@ -12766,7 +12714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>4</v>
       </c>
@@ -12781,7 +12729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>4</v>
       </c>
@@ -12796,7 +12744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>4</v>
       </c>
@@ -12811,7 +12759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>4</v>
       </c>
@@ -12826,7 +12774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>4</v>
       </c>
@@ -12841,7 +12789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>4</v>
       </c>
@@ -12856,7 +12804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>4</v>
       </c>
@@ -12871,7 +12819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>4</v>
       </c>
@@ -12886,7 +12834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>4</v>
       </c>
@@ -12901,7 +12849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>4</v>
       </c>
@@ -12916,7 +12864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>4</v>
       </c>
@@ -12931,7 +12879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>4</v>
       </c>
@@ -12946,7 +12894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>4</v>
       </c>
@@ -12961,7 +12909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>4</v>
       </c>
@@ -12976,7 +12924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>4</v>
       </c>
@@ -12991,7 +12939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>4</v>
       </c>
@@ -13006,7 +12954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>4</v>
       </c>
@@ -13021,7 +12969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>4</v>
       </c>
@@ -13036,7 +12984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>4</v>
       </c>
@@ -13051,7 +12999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>4</v>
       </c>
@@ -13066,7 +13014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>4</v>
       </c>
@@ -13081,7 +13029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>4</v>
       </c>
@@ -13096,7 +13044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>4</v>
       </c>
@@ -13111,7 +13059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>4</v>
       </c>
@@ -13126,7 +13074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>4</v>
       </c>
@@ -13141,7 +13089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>4</v>
       </c>
@@ -13156,7 +13104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>4</v>
       </c>
@@ -13171,7 +13119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>4</v>
       </c>
@@ -13186,7 +13134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>4</v>
       </c>
@@ -13201,7 +13149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>4</v>
       </c>
@@ -13216,7 +13164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>4</v>
       </c>
@@ -13231,7 +13179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>4</v>
       </c>
@@ -13246,7 +13194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>4</v>
       </c>
@@ -13261,7 +13209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>4</v>
       </c>
@@ -13276,7 +13224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>4</v>
       </c>
@@ -13291,7 +13239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>4</v>
       </c>
@@ -13306,7 +13254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>4</v>
       </c>
@@ -13321,7 +13269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>4</v>
       </c>
@@ -13336,7 +13284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>4</v>
       </c>
@@ -13351,7 +13299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>4</v>
       </c>
@@ -13366,7 +13314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>4</v>
       </c>
@@ -13381,7 +13329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>4</v>
       </c>
@@ -13396,7 +13344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>4</v>
       </c>
@@ -13411,7 +13359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>4</v>
       </c>
@@ -13426,7 +13374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>4</v>
       </c>
@@ -13441,7 +13389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>4</v>
       </c>
@@ -13456,7 +13404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>4</v>
       </c>
@@ -13471,7 +13419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>4</v>
       </c>
@@ -13486,7 +13434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>4</v>
       </c>
@@ -13501,7 +13449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>4</v>
       </c>
@@ -13516,7 +13464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>4</v>
       </c>
@@ -13531,7 +13479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>4</v>
       </c>
@@ -13546,7 +13494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>4</v>
       </c>
@@ -13561,7 +13509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>4</v>
       </c>
@@ -13576,7 +13524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>4</v>
       </c>
@@ -13591,7 +13539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>4</v>
       </c>
@@ -13606,7 +13554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>4</v>
       </c>
@@ -13621,7 +13569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>4</v>
       </c>
@@ -13636,7 +13584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>4</v>
       </c>
@@ -13651,7 +13599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>4</v>
       </c>
@@ -13666,7 +13614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>4</v>
       </c>
@@ -13681,7 +13629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>4</v>
       </c>
@@ -13696,7 +13644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>4</v>
       </c>
@@ -13711,7 +13659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>4</v>
       </c>
@@ -13726,7 +13674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>4</v>
       </c>
@@ -13741,7 +13689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>4</v>
       </c>
@@ -13756,7 +13704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>4</v>
       </c>
@@ -13771,7 +13719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>4</v>
       </c>
@@ -13786,7 +13734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>4</v>
       </c>
@@ -13801,7 +13749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>4</v>
       </c>
@@ -13816,7 +13764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>4</v>
       </c>
@@ -13831,7 +13779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>4</v>
       </c>
@@ -13846,7 +13794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>4</v>
       </c>
@@ -13861,7 +13809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>4</v>
       </c>
@@ -13876,7 +13824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>4</v>
       </c>
@@ -13891,7 +13839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>4</v>
       </c>
@@ -13906,7 +13854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>4</v>
       </c>
@@ -13921,7 +13869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>4</v>
       </c>
@@ -13936,7 +13884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>4</v>
       </c>
@@ -13951,7 +13899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>4</v>
       </c>
@@ -13966,7 +13914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>4</v>
       </c>
@@ -13981,7 +13929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>4</v>
       </c>
@@ -13996,7 +13944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>4</v>
       </c>
@@ -14011,7 +13959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>4</v>
       </c>
@@ -14026,7 +13974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>4</v>
       </c>
@@ -14041,7 +13989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>4</v>
       </c>
@@ -14056,7 +14004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>4</v>
       </c>
@@ -14071,7 +14019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>4</v>
       </c>
@@ -14086,7 +14034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>4</v>
       </c>
@@ -14101,7 +14049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>4</v>
       </c>
@@ -14116,7 +14064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>4</v>
       </c>
@@ -14131,7 +14079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>4</v>
       </c>
@@ -14146,7 +14094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>4</v>
       </c>
@@ -14161,7 +14109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>4</v>
       </c>
@@ -14176,7 +14124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>4</v>
       </c>
@@ -14191,7 +14139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>4</v>
       </c>
@@ -14206,7 +14154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>4</v>
       </c>
@@ -14221,7 +14169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>4</v>
       </c>
@@ -14236,7 +14184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>4</v>
       </c>
@@ -14251,7 +14199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>4</v>
       </c>
@@ -14266,7 +14214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>4</v>
       </c>
@@ -14281,7 +14229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>4</v>
       </c>
@@ -14296,7 +14244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>4</v>
       </c>
@@ -14311,7 +14259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>4</v>
       </c>
@@ -14326,7 +14274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>4</v>
       </c>
@@ -14341,7 +14289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>4</v>
       </c>
@@ -14356,7 +14304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>4</v>
       </c>
@@ -14371,7 +14319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>4</v>
       </c>
@@ -14386,7 +14334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>4</v>
       </c>
@@ -14401,7 +14349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>4</v>
       </c>
@@ -14416,7 +14364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>4</v>
       </c>
@@ -14431,7 +14379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>4</v>
       </c>
@@ -14446,7 +14394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>4</v>
       </c>
@@ -14461,7 +14409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>4</v>
       </c>
@@ -14476,7 +14424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>4</v>
       </c>
@@ -14491,7 +14439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>4</v>
       </c>
@@ -14506,7 +14454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>4</v>
       </c>
@@ -14521,7 +14469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>4</v>
       </c>
@@ -14536,7 +14484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>4</v>
       </c>
@@ -14551,7 +14499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>4</v>
       </c>
@@ -14566,7 +14514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>4</v>
       </c>
@@ -14581,7 +14529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>4</v>
       </c>
@@ -14596,7 +14544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>4</v>
       </c>
@@ -14611,7 +14559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>4</v>
       </c>
@@ -14626,7 +14574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>4</v>
       </c>
@@ -14641,7 +14589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>4</v>
       </c>
@@ -14656,7 +14604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>4</v>
       </c>
@@ -14671,7 +14619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>4</v>
       </c>
@@ -14686,7 +14634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>4</v>
       </c>
@@ -14702,7 +14650,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D6:D9 D1:D4 D13:D30 D34:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"*"</formula>
     </cfRule>

--- a/ExcelFiles/Usage_MeasureGroups_Vs_Dimensions.xlsx
+++ b/ExcelFiles/Usage_MeasureGroups_Vs_Dimensions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Cube\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_car\CarilionCube\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC3B991-CA5E-482F-B02D-DA5FCA556E44}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17850" windowHeight="2580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17856" windowHeight="2580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -887,7 +888,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -981,17 +982,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E885" totalsRowShown="0">
-  <autoFilter ref="A1:E885"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E885" totalsRowShown="0">
+  <autoFilter ref="A1:E885" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A22:E875">
     <sortCondition ref="C1:C885"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="cube_name"/>
-    <tableColumn id="2" name="measuregroup_name"/>
-    <tableColumn id="4" name="dimension_unique_name"/>
-    <tableColumn id="8" name="Use This One"/>
-    <tableColumn id="6" name="dimension_cardinality"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cube_name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="measuregroup_name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="dimension_unique_name"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Use This One"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="dimension_cardinality"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1293,23 +1300,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E885"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C518" sqref="C518"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1343,7 +1350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1375,7 +1382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1389,7 +1396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1406,7 +1413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1423,7 +1430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1440,7 +1447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1457,7 +1464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1471,7 +1478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1485,7 +1492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1499,7 +1506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1516,7 +1523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1533,7 +1540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1550,7 +1557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1565,7 +1572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1580,7 +1587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1597,7 +1604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1614,7 +1621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1629,7 +1636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1644,7 +1651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1659,7 +1666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1674,7 +1681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1689,7 +1696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1704,7 +1711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1719,7 +1726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1734,7 +1741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1749,7 +1756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +1771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1779,7 +1786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1793,7 +1800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1807,7 +1814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1821,7 +1828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1838,7 +1845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1855,7 +1862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1872,7 +1879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1889,7 +1896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1906,7 +1913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1921,7 +1928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1936,7 +1943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1951,7 +1958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1968,7 +1975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1985,7 +1992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2000,7 +2007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2015,7 +2022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2030,7 +2037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2045,7 +2052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2060,7 +2067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2075,7 +2082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -2092,7 +2099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2126,7 +2133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2141,7 +2148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2171,7 +2178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -2188,7 +2195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -2205,7 +2212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -2222,7 +2229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2237,7 +2244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -2252,7 +2259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -2267,7 +2274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -2282,7 +2289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2297,7 +2304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -2312,7 +2319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2327,7 +2334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -2342,7 +2349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -2357,7 +2364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -2372,7 +2379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -2387,7 +2394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -2402,7 +2409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -2417,7 +2424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -2432,7 +2439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -2447,7 +2454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -2462,7 +2469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -2477,7 +2484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -2492,7 +2499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -2507,7 +2514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -2522,7 +2529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2537,7 +2544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -2552,7 +2559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2567,7 +2574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2582,7 +2589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -2597,7 +2604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -2612,7 +2619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -2627,7 +2634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -2642,7 +2649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2657,7 +2664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2672,7 +2679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2687,7 +2694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -2702,7 +2709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2717,7 +2724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -2732,7 +2739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2747,7 +2754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -2762,7 +2769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -2777,7 +2784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -2792,7 +2799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -2807,7 +2814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2822,7 +2829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -2837,7 +2844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -2852,7 +2859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -2867,7 +2874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -2882,7 +2889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -2897,7 +2904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -2912,7 +2919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -2927,7 +2934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -2942,7 +2949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -2957,7 +2964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -2972,7 +2979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -2987,7 +2994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -3002,7 +3009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -3017,7 +3024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -3032,7 +3039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3047,7 +3054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -3062,7 +3069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -3077,7 +3084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -3092,7 +3099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -3107,7 +3114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -3122,7 +3129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -3137,7 +3144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -3152,7 +3159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -3167,7 +3174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -3182,7 +3189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -3197,7 +3204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -3212,7 +3219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -3227,7 +3234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -3242,7 +3249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -3257,7 +3264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -3272,7 +3279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -3287,7 +3294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -3302,7 +3309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -3319,7 +3326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -3336,7 +3343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -3353,7 +3360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -3368,7 +3375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -3383,7 +3390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -3398,7 +3405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -3413,7 +3420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -3428,7 +3435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -3443,7 +3450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -3458,7 +3465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -3473,7 +3480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -3488,7 +3495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -3503,7 +3510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -3518,7 +3525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -3533,7 +3540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -3548,7 +3555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -3563,7 +3570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -3578,7 +3585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -3593,7 +3600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -3608,7 +3615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -3623,7 +3630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -3638,7 +3645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -3653,7 +3660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -3668,7 +3675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -3683,7 +3690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -3698,7 +3705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -3713,7 +3720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -3728,7 +3735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -3743,7 +3750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -3758,7 +3765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3788,7 +3795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -3803,7 +3810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -3818,7 +3825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -3833,7 +3840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -3848,7 +3855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -3863,7 +3870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -3878,7 +3885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -3893,7 +3900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -3908,7 +3915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -3923,7 +3930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -3938,7 +3945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -3953,7 +3960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -3968,7 +3975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -3983,7 +3990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -3998,7 +4005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -4013,7 +4020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -4028,7 +4035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -4043,7 +4050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -4058,7 +4065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -4073,7 +4080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -4088,7 +4095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -4103,7 +4110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -4118,7 +4125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -4133,7 +4140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -4148,7 +4155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -4163,7 +4170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -4178,7 +4185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -4193,7 +4200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -4208,7 +4215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -4225,7 +4232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -4240,7 +4247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -4257,7 +4264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -4274,7 +4281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -4289,7 +4296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -4306,7 +4313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -4323,7 +4330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -4338,7 +4345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -4353,7 +4360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -4368,7 +4375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -4383,7 +4390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -4398,7 +4405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -4413,7 +4420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -4428,7 +4435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -4443,7 +4450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -4458,7 +4465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -4473,7 +4480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -4488,7 +4495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -4503,7 +4510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -4518,7 +4525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -4533,7 +4540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -4548,7 +4555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -4563,7 +4570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +4585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -4593,7 +4600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -4608,7 +4615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -4623,7 +4630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -4638,7 +4645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -4653,7 +4660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -4668,7 +4675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -4683,7 +4690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -4698,7 +4705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -4713,7 +4720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -4728,7 +4735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -4743,7 +4750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -4758,7 +4765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -4773,7 +4780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -4788,7 +4795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -4803,7 +4810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -4818,7 +4825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -4833,7 +4840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -4848,7 +4855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -4863,7 +4870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -4878,7 +4885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>4</v>
       </c>
@@ -4893,7 +4900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>4</v>
       </c>
@@ -4908,7 +4915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -4923,7 +4930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -4938,7 +4945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -4953,7 +4960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -4968,7 +4975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -4983,7 +4990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>4</v>
       </c>
@@ -4998,7 +5005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -5013,7 +5020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>4</v>
       </c>
@@ -5028,7 +5035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>4</v>
       </c>
@@ -5043,7 +5050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>4</v>
       </c>
@@ -5058,7 +5065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -5073,7 +5080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>4</v>
       </c>
@@ -5088,7 +5095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -5103,7 +5110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>4</v>
       </c>
@@ -5118,7 +5125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -5133,7 +5140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -5148,7 +5155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>4</v>
       </c>
@@ -5163,7 +5170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>4</v>
       </c>
@@ -5178,7 +5185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>4</v>
       </c>
@@ -5193,7 +5200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>4</v>
       </c>
@@ -5208,7 +5215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -5223,7 +5230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -5238,7 +5245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>4</v>
       </c>
@@ -5253,7 +5260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>4</v>
       </c>
@@ -5268,7 +5275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>4</v>
       </c>
@@ -5283,7 +5290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>4</v>
       </c>
@@ -5298,7 +5305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>4</v>
       </c>
@@ -5313,7 +5320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -5328,7 +5335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -5343,7 +5350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -5358,7 +5365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -5373,7 +5380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -5388,7 +5395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -5403,7 +5410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>4</v>
       </c>
@@ -5418,7 +5425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>4</v>
       </c>
@@ -5433,7 +5440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>4</v>
       </c>
@@ -5448,7 +5455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>4</v>
       </c>
@@ -5463,7 +5470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -5478,7 +5485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>4</v>
       </c>
@@ -5493,7 +5500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>4</v>
       </c>
@@ -5508,7 +5515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -5523,7 +5530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>4</v>
       </c>
@@ -5538,7 +5545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>4</v>
       </c>
@@ -5553,7 +5560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>4</v>
       </c>
@@ -5568,7 +5575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>4</v>
       </c>
@@ -5583,7 +5590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -5598,7 +5605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -5613,7 +5620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>4</v>
       </c>
@@ -5628,7 +5635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>4</v>
       </c>
@@ -5643,7 +5650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>4</v>
       </c>
@@ -5658,7 +5665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>4</v>
       </c>
@@ -5673,7 +5680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -5688,7 +5695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -5703,7 +5710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -5718,7 +5725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -5733,7 +5740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>4</v>
       </c>
@@ -5748,7 +5755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>4</v>
       </c>
@@ -5763,7 +5770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>4</v>
       </c>
@@ -5778,7 +5785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>4</v>
       </c>
@@ -5793,7 +5800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>4</v>
       </c>
@@ -5808,7 +5815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -5823,7 +5830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -5838,7 +5845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -5853,7 +5860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -5868,7 +5875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>4</v>
       </c>
@@ -5883,7 +5890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>4</v>
       </c>
@@ -5898,7 +5905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>4</v>
       </c>
@@ -5913,7 +5920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>4</v>
       </c>
@@ -5928,7 +5935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>4</v>
       </c>
@@ -5943,7 +5950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>4</v>
       </c>
@@ -5958,7 +5965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>4</v>
       </c>
@@ -5973,7 +5980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>4</v>
       </c>
@@ -5988,7 +5995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>4</v>
       </c>
@@ -6003,7 +6010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>4</v>
       </c>
@@ -6018,7 +6025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>4</v>
       </c>
@@ -6033,7 +6040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>4</v>
       </c>
@@ -6048,7 +6055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>4</v>
       </c>
@@ -6063,7 +6070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>4</v>
       </c>
@@ -6078,7 +6085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -6093,7 +6100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>4</v>
       </c>
@@ -6108,7 +6115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -6123,7 +6130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>4</v>
       </c>
@@ -6138,7 +6145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>4</v>
       </c>
@@ -6153,7 +6160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>4</v>
       </c>
@@ -6168,7 +6175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>4</v>
       </c>
@@ -6183,7 +6190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -6198,7 +6205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>4</v>
       </c>
@@ -6213,7 +6220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>4</v>
       </c>
@@ -6228,7 +6235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>4</v>
       </c>
@@ -6243,7 +6250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>4</v>
       </c>
@@ -6258,7 +6265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>4</v>
       </c>
@@ -6273,7 +6280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>4</v>
       </c>
@@ -6288,7 +6295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>4</v>
       </c>
@@ -6303,7 +6310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>4</v>
       </c>
@@ -6318,7 +6325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>4</v>
       </c>
@@ -6333,7 +6340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>4</v>
       </c>
@@ -6348,7 +6355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>4</v>
       </c>
@@ -6363,7 +6370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>4</v>
       </c>
@@ -6378,7 +6385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>4</v>
       </c>
@@ -6393,7 +6400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>4</v>
       </c>
@@ -6408,7 +6415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>4</v>
       </c>
@@ -6423,7 +6430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>4</v>
       </c>
@@ -6438,7 +6445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>4</v>
       </c>
@@ -6453,7 +6460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>4</v>
       </c>
@@ -6468,7 +6475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>4</v>
       </c>
@@ -6483,7 +6490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>4</v>
       </c>
@@ -6498,7 +6505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>4</v>
       </c>
@@ -6513,7 +6520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>4</v>
       </c>
@@ -6528,7 +6535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>4</v>
       </c>
@@ -6543,7 +6550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>4</v>
       </c>
@@ -6558,7 +6565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>4</v>
       </c>
@@ -6573,7 +6580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>4</v>
       </c>
@@ -6588,7 +6595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>4</v>
       </c>
@@ -6603,7 +6610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>4</v>
       </c>
@@ -6618,7 +6625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>4</v>
       </c>
@@ -6633,7 +6640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>4</v>
       </c>
@@ -6648,7 +6655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>4</v>
       </c>
@@ -6663,7 +6670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -6678,7 +6685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>4</v>
       </c>
@@ -6693,7 +6700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>4</v>
       </c>
@@ -6708,7 +6715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>4</v>
       </c>
@@ -6723,7 +6730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>4</v>
       </c>
@@ -6738,7 +6745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>4</v>
       </c>
@@ -6753,7 +6760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>4</v>
       </c>
@@ -6768,7 +6775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>4</v>
       </c>
@@ -6783,7 +6790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>4</v>
       </c>
@@ -6798,7 +6805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>4</v>
       </c>
@@ -6813,7 +6820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>4</v>
       </c>
@@ -6828,7 +6835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>4</v>
       </c>
@@ -6843,7 +6850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>4</v>
       </c>
@@ -6858,7 +6865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>4</v>
       </c>
@@ -6873,7 +6880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>4</v>
       </c>
@@ -6888,7 +6895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>4</v>
       </c>
@@ -6903,7 +6910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>4</v>
       </c>
@@ -6918,7 +6925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>4</v>
       </c>
@@ -6933,7 +6940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>4</v>
       </c>
@@ -6948,7 +6955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>4</v>
       </c>
@@ -6963,7 +6970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>4</v>
       </c>
@@ -6978,7 +6985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>4</v>
       </c>
@@ -6993,7 +7000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>4</v>
       </c>
@@ -7008,7 +7015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>4</v>
       </c>
@@ -7023,7 +7030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -7038,7 +7045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>4</v>
       </c>
@@ -7053,7 +7060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>4</v>
       </c>
@@ -7068,7 +7075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>4</v>
       </c>
@@ -7083,7 +7090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>4</v>
       </c>
@@ -7098,7 +7105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>4</v>
       </c>
@@ -7113,7 +7120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>4</v>
       </c>
@@ -7128,7 +7135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>4</v>
       </c>
@@ -7143,7 +7150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -7158,7 +7165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>4</v>
       </c>
@@ -7173,7 +7180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>4</v>
       </c>
@@ -7188,7 +7195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>4</v>
       </c>
@@ -7203,7 +7210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>4</v>
       </c>
@@ -7218,7 +7225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>4</v>
       </c>
@@ -7233,7 +7240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>4</v>
       </c>
@@ -7248,7 +7255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>4</v>
       </c>
@@ -7263,7 +7270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>4</v>
       </c>
@@ -7278,7 +7285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>4</v>
       </c>
@@ -7293,7 +7300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>4</v>
       </c>
@@ -7308,7 +7315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>4</v>
       </c>
@@ -7323,7 +7330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>4</v>
       </c>
@@ -7338,7 +7345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>4</v>
       </c>
@@ -7353,7 +7360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>4</v>
       </c>
@@ -7368,7 +7375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>4</v>
       </c>
@@ -7383,7 +7390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>4</v>
       </c>
@@ -7398,7 +7405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>4</v>
       </c>
@@ -7413,7 +7420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>4</v>
       </c>
@@ -7428,7 +7435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>4</v>
       </c>
@@ -7443,7 +7450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>4</v>
       </c>
@@ -7458,7 +7465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>4</v>
       </c>
@@ -7473,7 +7480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>4</v>
       </c>
@@ -7488,7 +7495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>4</v>
       </c>
@@ -7503,7 +7510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>4</v>
       </c>
@@ -7518,7 +7525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>4</v>
       </c>
@@ -7533,7 +7540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>4</v>
       </c>
@@ -7548,7 +7555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>4</v>
       </c>
@@ -7563,7 +7570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>4</v>
       </c>
@@ -7578,7 +7585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>4</v>
       </c>
@@ -7593,7 +7600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>4</v>
       </c>
@@ -7608,7 +7615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>4</v>
       </c>
@@ -7623,7 +7630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>4</v>
       </c>
@@ -7638,7 +7645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>4</v>
       </c>
@@ -7653,7 +7660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>4</v>
       </c>
@@ -7668,7 +7675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>4</v>
       </c>
@@ -7683,7 +7690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>4</v>
       </c>
@@ -7698,7 +7705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>4</v>
       </c>
@@ -7713,7 +7720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>4</v>
       </c>
@@ -7728,7 +7735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>4</v>
       </c>
@@ -7743,7 +7750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>4</v>
       </c>
@@ -7758,7 +7765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>4</v>
       </c>
@@ -7773,7 +7780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>4</v>
       </c>
@@ -7788,7 +7795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>4</v>
       </c>
@@ -7803,7 +7810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>4</v>
       </c>
@@ -7818,7 +7825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>4</v>
       </c>
@@ -7833,7 +7840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>4</v>
       </c>
@@ -7848,7 +7855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>4</v>
       </c>
@@ -7863,7 +7870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>4</v>
       </c>
@@ -7878,7 +7885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>4</v>
       </c>
@@ -7893,7 +7900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>4</v>
       </c>
@@ -7908,7 +7915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>4</v>
       </c>
@@ -7923,7 +7930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>4</v>
       </c>
@@ -7938,7 +7945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>4</v>
       </c>
@@ -7953,7 +7960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>4</v>
       </c>
@@ -7968,7 +7975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>4</v>
       </c>
@@ -7983,7 +7990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>4</v>
       </c>
@@ -7998,7 +8005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>4</v>
       </c>
@@ -8013,7 +8020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>4</v>
       </c>
@@ -8028,7 +8035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>4</v>
       </c>
@@ -8043,7 +8050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>4</v>
       </c>
@@ -8058,7 +8065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>4</v>
       </c>
@@ -8073,7 +8080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>4</v>
       </c>
@@ -8088,7 +8095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>4</v>
       </c>
@@ -8103,7 +8110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>4</v>
       </c>
@@ -8118,7 +8125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>4</v>
       </c>
@@ -8133,7 +8140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>4</v>
       </c>
@@ -8148,7 +8155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>4</v>
       </c>
@@ -8163,7 +8170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>4</v>
       </c>
@@ -8178,7 +8185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>4</v>
       </c>
@@ -8193,7 +8200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>4</v>
       </c>
@@ -8208,7 +8215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>4</v>
       </c>
@@ -8223,7 +8230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>4</v>
       </c>
@@ -8238,7 +8245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>4</v>
       </c>
@@ -8253,7 +8260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>4</v>
       </c>
@@ -8268,7 +8275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>4</v>
       </c>
@@ -8283,7 +8290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>4</v>
       </c>
@@ -8298,7 +8305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>4</v>
       </c>
@@ -8313,7 +8320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>4</v>
       </c>
@@ -8328,7 +8335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>4</v>
       </c>
@@ -8343,7 +8350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>4</v>
       </c>
@@ -8358,7 +8365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>4</v>
       </c>
@@ -8373,7 +8380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>4</v>
       </c>
@@ -8388,7 +8395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>4</v>
       </c>
@@ -8403,7 +8410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>4</v>
       </c>
@@ -8418,7 +8425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>4</v>
       </c>
@@ -8433,7 +8440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>4</v>
       </c>
@@ -8448,7 +8455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>4</v>
       </c>
@@ -8463,7 +8470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>4</v>
       </c>
@@ -8478,7 +8485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>4</v>
       </c>
@@ -8493,7 +8500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>4</v>
       </c>
@@ -8508,7 +8515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>4</v>
       </c>
@@ -8523,7 +8530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>4</v>
       </c>
@@ -8538,7 +8545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>4</v>
       </c>
@@ -8553,7 +8560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>4</v>
       </c>
@@ -8568,7 +8575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>4</v>
       </c>
@@ -8583,7 +8590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>4</v>
       </c>
@@ -8598,7 +8605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>4</v>
       </c>
@@ -8613,7 +8620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>4</v>
       </c>
@@ -8628,7 +8635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>4</v>
       </c>
@@ -8643,7 +8650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>4</v>
       </c>
@@ -8658,7 +8665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>4</v>
       </c>
@@ -8673,7 +8680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>4</v>
       </c>
@@ -8688,7 +8695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>4</v>
       </c>
@@ -8703,7 +8710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>4</v>
       </c>
@@ -8718,7 +8725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>4</v>
       </c>
@@ -8733,7 +8740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>4</v>
       </c>
@@ -8748,7 +8755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>4</v>
       </c>
@@ -8763,7 +8770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>4</v>
       </c>
@@ -8778,7 +8785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>4</v>
       </c>
@@ -8793,7 +8800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>4</v>
       </c>
@@ -8808,7 +8815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>4</v>
       </c>
@@ -8823,7 +8830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>4</v>
       </c>
@@ -8838,7 +8845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>4</v>
       </c>
@@ -8853,7 +8860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>4</v>
       </c>
@@ -8868,7 +8875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>4</v>
       </c>
@@ -8883,7 +8890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>4</v>
       </c>
@@ -8898,7 +8905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>4</v>
       </c>
@@ -8913,7 +8920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>4</v>
       </c>
@@ -8928,7 +8935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>4</v>
       </c>
@@ -8943,7 +8950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>4</v>
       </c>
@@ -8958,7 +8965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>4</v>
       </c>
@@ -8973,7 +8980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>4</v>
       </c>
@@ -8988,7 +8995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>4</v>
       </c>
@@ -9003,7 +9010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>4</v>
       </c>
@@ -9018,7 +9025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>4</v>
       </c>
@@ -9033,7 +9040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>4</v>
       </c>
@@ -9048,7 +9055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>4</v>
       </c>
@@ -9063,7 +9070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>4</v>
       </c>
@@ -9078,7 +9085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>4</v>
       </c>
@@ -9093,7 +9100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>4</v>
       </c>
@@ -9108,7 +9115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>4</v>
       </c>
@@ -9123,7 +9130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>4</v>
       </c>
@@ -9140,7 +9147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>4</v>
       </c>
@@ -9157,7 +9164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>4</v>
       </c>
@@ -9174,7 +9181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>4</v>
       </c>
@@ -9189,7 +9196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>4</v>
       </c>
@@ -9204,7 +9211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>4</v>
       </c>
@@ -9219,7 +9226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>4</v>
       </c>
@@ -9234,7 +9241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>4</v>
       </c>
@@ -9249,7 +9256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>4</v>
       </c>
@@ -9264,7 +9271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>4</v>
       </c>
@@ -9279,7 +9286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>4</v>
       </c>
@@ -9294,7 +9301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>4</v>
       </c>
@@ -9309,7 +9316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>4</v>
       </c>
@@ -9324,7 +9331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>4</v>
       </c>
@@ -9339,7 +9346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>4</v>
       </c>
@@ -9354,7 +9361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>4</v>
       </c>
@@ -9369,7 +9376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>4</v>
       </c>
@@ -9384,7 +9391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>4</v>
       </c>
@@ -9399,7 +9406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>4</v>
       </c>
@@ -9414,7 +9421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>4</v>
       </c>
@@ -9429,7 +9436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>4</v>
       </c>
@@ -9444,7 +9451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>4</v>
       </c>
@@ -9459,7 +9466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>4</v>
       </c>
@@ -9474,7 +9481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>4</v>
       </c>
@@ -9489,7 +9496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>4</v>
       </c>
@@ -9504,7 +9511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>4</v>
       </c>
@@ -9519,7 +9526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>4</v>
       </c>
@@ -9534,7 +9541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>4</v>
       </c>
@@ -9549,7 +9556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>4</v>
       </c>
@@ -9564,7 +9571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>4</v>
       </c>
@@ -9579,7 +9586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>4</v>
       </c>
@@ -9594,7 +9601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>4</v>
       </c>
@@ -9609,7 +9616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>4</v>
       </c>
@@ -9624,7 +9631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>4</v>
       </c>
@@ -9639,7 +9646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>4</v>
       </c>
@@ -9654,7 +9661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>4</v>
       </c>
@@ -9669,7 +9676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>4</v>
       </c>
@@ -9684,7 +9691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>4</v>
       </c>
@@ -9699,7 +9706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>4</v>
       </c>
@@ -9714,7 +9721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>4</v>
       </c>
@@ -9729,7 +9736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>4</v>
       </c>
@@ -9744,7 +9751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>4</v>
       </c>
@@ -9759,7 +9766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>4</v>
       </c>
@@ -9774,7 +9781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>4</v>
       </c>
@@ -9789,7 +9796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>4</v>
       </c>
@@ -9804,7 +9811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>4</v>
       </c>
@@ -9819,7 +9826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>4</v>
       </c>
@@ -9834,7 +9841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>4</v>
       </c>
@@ -9849,7 +9856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>4</v>
       </c>
@@ -9864,7 +9871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>4</v>
       </c>
@@ -9879,7 +9886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>4</v>
       </c>
@@ -9894,7 +9901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>4</v>
       </c>
@@ -9909,7 +9916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>4</v>
       </c>
@@ -9924,7 +9931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>4</v>
       </c>
@@ -9939,7 +9946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>4</v>
       </c>
@@ -9954,7 +9961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>4</v>
       </c>
@@ -9969,7 +9976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>4</v>
       </c>
@@ -9984,7 +9991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>4</v>
       </c>
@@ -9999,7 +10006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>4</v>
       </c>
@@ -10014,7 +10021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>4</v>
       </c>
@@ -10029,7 +10036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>4</v>
       </c>
@@ -10044,7 +10051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>4</v>
       </c>
@@ -10059,7 +10066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>4</v>
       </c>
@@ -10074,7 +10081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>4</v>
       </c>
@@ -10089,7 +10096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>4</v>
       </c>
@@ -10104,7 +10111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>4</v>
       </c>
@@ -10119,7 +10126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>4</v>
       </c>
@@ -10134,7 +10141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>4</v>
       </c>
@@ -10149,7 +10156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>4</v>
       </c>
@@ -10164,7 +10171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>4</v>
       </c>
@@ -10179,7 +10186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>4</v>
       </c>
@@ -10194,7 +10201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>4</v>
       </c>
@@ -10209,7 +10216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>4</v>
       </c>
@@ -10224,7 +10231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>4</v>
       </c>
@@ -10239,7 +10246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>4</v>
       </c>
@@ -10254,7 +10261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>4</v>
       </c>
@@ -10269,7 +10276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>4</v>
       </c>
@@ -10284,7 +10291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>4</v>
       </c>
@@ -10299,7 +10306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>4</v>
       </c>
@@ -10314,7 +10321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>4</v>
       </c>
@@ -10329,7 +10336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>4</v>
       </c>
@@ -10344,7 +10351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>4</v>
       </c>
@@ -10359,7 +10366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>4</v>
       </c>
@@ -10374,7 +10381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>4</v>
       </c>
@@ -10389,7 +10396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>4</v>
       </c>
@@ -10404,7 +10411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>4</v>
       </c>
@@ -10419,7 +10426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>4</v>
       </c>
@@ -10434,7 +10441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>4</v>
       </c>
@@ -10449,7 +10456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>4</v>
       </c>
@@ -10464,7 +10471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>4</v>
       </c>
@@ -10479,7 +10486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>4</v>
       </c>
@@ -10494,7 +10501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>4</v>
       </c>
@@ -10509,7 +10516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>4</v>
       </c>
@@ -10524,7 +10531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>4</v>
       </c>
@@ -10539,7 +10546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>4</v>
       </c>
@@ -10554,7 +10561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>4</v>
       </c>
@@ -10569,7 +10576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>4</v>
       </c>
@@ -10584,7 +10591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>4</v>
       </c>
@@ -10599,7 +10606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>4</v>
       </c>
@@ -10614,7 +10621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>4</v>
       </c>
@@ -10629,7 +10636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>4</v>
       </c>
@@ -10644,7 +10651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>4</v>
       </c>
@@ -10659,7 +10666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>4</v>
       </c>
@@ -10674,7 +10681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>4</v>
       </c>
@@ -10689,7 +10696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>4</v>
       </c>
@@ -10704,7 +10711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>4</v>
       </c>
@@ -10719,7 +10726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>4</v>
       </c>
@@ -10734,7 +10741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>4</v>
       </c>
@@ -10749,7 +10756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>4</v>
       </c>
@@ -10764,7 +10771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>4</v>
       </c>
@@ -10779,7 +10786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>4</v>
       </c>
@@ -10794,7 +10801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>4</v>
       </c>
@@ -10809,7 +10816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>4</v>
       </c>
@@ -10824,7 +10831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>4</v>
       </c>
@@ -10839,7 +10846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>4</v>
       </c>
@@ -10854,7 +10861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>4</v>
       </c>
@@ -10869,7 +10876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>4</v>
       </c>
@@ -10884,7 +10891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>4</v>
       </c>
@@ -10899,7 +10906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>4</v>
       </c>
@@ -10914,7 +10921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>4</v>
       </c>
@@ -10929,7 +10936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>4</v>
       </c>
@@ -10944,7 +10951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>4</v>
       </c>
@@ -10959,7 +10966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>4</v>
       </c>
@@ -10974,7 +10981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>4</v>
       </c>
@@ -10989,7 +10996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>4</v>
       </c>
@@ -11004,7 +11011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>4</v>
       </c>
@@ -11019,7 +11026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>4</v>
       </c>
@@ -11034,7 +11041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>4</v>
       </c>
@@ -11049,7 +11056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>4</v>
       </c>
@@ -11064,7 +11071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>4</v>
       </c>
@@ -11079,7 +11086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>4</v>
       </c>
@@ -11094,7 +11101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>4</v>
       </c>
@@ -11109,7 +11116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>4</v>
       </c>
@@ -11124,7 +11131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>4</v>
       </c>
@@ -11139,7 +11146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>4</v>
       </c>
@@ -11154,7 +11161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>4</v>
       </c>
@@ -11169,7 +11176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>4</v>
       </c>
@@ -11184,7 +11191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>4</v>
       </c>
@@ -11199,7 +11206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>4</v>
       </c>
@@ -11214,7 +11221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>4</v>
       </c>
@@ -11229,7 +11236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>4</v>
       </c>
@@ -11244,7 +11251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>4</v>
       </c>
@@ -11259,7 +11266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>4</v>
       </c>
@@ -11274,7 +11281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>4</v>
       </c>
@@ -11289,7 +11296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>4</v>
       </c>
@@ -11304,7 +11311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>4</v>
       </c>
@@ -11319,7 +11326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>4</v>
       </c>
@@ -11334,7 +11341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>4</v>
       </c>
@@ -11349,7 +11356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>4</v>
       </c>
@@ -11364,7 +11371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>4</v>
       </c>
@@ -11379,7 +11386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>4</v>
       </c>
@@ -11394,7 +11401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>4</v>
       </c>
@@ -11409,7 +11416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>4</v>
       </c>
@@ -11424,7 +11431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>4</v>
       </c>
@@ -11439,7 +11446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>4</v>
       </c>
@@ -11454,7 +11461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>4</v>
       </c>
@@ -11469,7 +11476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>4</v>
       </c>
@@ -11484,7 +11491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>4</v>
       </c>
@@ -11499,7 +11506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>4</v>
       </c>
@@ -11514,7 +11521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>4</v>
       </c>
@@ -11529,7 +11536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>4</v>
       </c>
@@ -11544,7 +11551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>4</v>
       </c>
@@ -11559,7 +11566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>4</v>
       </c>
@@ -11574,7 +11581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>4</v>
       </c>
@@ -11589,7 +11596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>4</v>
       </c>
@@ -11604,7 +11611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>4</v>
       </c>
@@ -11619,7 +11626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>4</v>
       </c>
@@ -11634,7 +11641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>4</v>
       </c>
@@ -11649,7 +11656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>4</v>
       </c>
@@ -11664,7 +11671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>4</v>
       </c>
@@ -11679,7 +11686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>4</v>
       </c>
@@ -11694,7 +11701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>4</v>
       </c>
@@ -11709,7 +11716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>4</v>
       </c>
@@ -11724,7 +11731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>4</v>
       </c>
@@ -11739,7 +11746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>4</v>
       </c>
@@ -11754,7 +11761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>4</v>
       </c>
@@ -11769,7 +11776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>4</v>
       </c>
@@ -11784,7 +11791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>4</v>
       </c>
@@ -11799,7 +11806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>4</v>
       </c>
@@ -11814,7 +11821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>4</v>
       </c>
@@ -11829,7 +11836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>4</v>
       </c>
@@ -11844,7 +11851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>4</v>
       </c>
@@ -11859,7 +11866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>4</v>
       </c>
@@ -11874,7 +11881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>4</v>
       </c>
@@ -11889,7 +11896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>4</v>
       </c>
@@ -11904,7 +11911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>4</v>
       </c>
@@ -11919,7 +11926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>4</v>
       </c>
@@ -11934,7 +11941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>4</v>
       </c>
@@ -11949,7 +11956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>4</v>
       </c>
@@ -11964,7 +11971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>4</v>
       </c>
@@ -11979,7 +11986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>4</v>
       </c>
@@ -11994,7 +12001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>4</v>
       </c>
@@ -12009,7 +12016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>4</v>
       </c>
@@ -12024,7 +12031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>4</v>
       </c>
@@ -12039,7 +12046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>4</v>
       </c>
@@ -12054,7 +12061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>4</v>
       </c>
@@ -12069,7 +12076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>4</v>
       </c>
@@ -12084,7 +12091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>4</v>
       </c>
@@ -12099,7 +12106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>4</v>
       </c>
@@ -12114,7 +12121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>4</v>
       </c>
@@ -12129,7 +12136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>4</v>
       </c>
@@ -12144,7 +12151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>4</v>
       </c>
@@ -12159,7 +12166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>4</v>
       </c>
@@ -12174,7 +12181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>4</v>
       </c>
@@ -12189,7 +12196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>4</v>
       </c>
@@ -12204,7 +12211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>4</v>
       </c>
@@ -12219,7 +12226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>4</v>
       </c>
@@ -12234,7 +12241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>4</v>
       </c>
@@ -12249,7 +12256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>4</v>
       </c>
@@ -12264,7 +12271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>4</v>
       </c>
@@ -12279,7 +12286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>4</v>
       </c>
@@ -12294,7 +12301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>4</v>
       </c>
@@ -12309,7 +12316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>4</v>
       </c>
@@ -12324,7 +12331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>4</v>
       </c>
@@ -12339,7 +12346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>4</v>
       </c>
@@ -12354,7 +12361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>4</v>
       </c>
@@ -12369,7 +12376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>4</v>
       </c>
@@ -12384,7 +12391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>4</v>
       </c>
@@ -12399,7 +12406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>4</v>
       </c>
@@ -12414,7 +12421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>4</v>
       </c>
@@ -12429,7 +12436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>4</v>
       </c>
@@ -12444,7 +12451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>4</v>
       </c>
@@ -12459,7 +12466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>4</v>
       </c>
@@ -12474,7 +12481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>4</v>
       </c>
@@ -12489,7 +12496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>4</v>
       </c>
@@ -12504,7 +12511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>4</v>
       </c>
@@ -12519,7 +12526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>4</v>
       </c>
@@ -12534,7 +12541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>4</v>
       </c>
@@ -12549,7 +12556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>4</v>
       </c>
@@ -12564,7 +12571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>4</v>
       </c>
@@ -12579,7 +12586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>4</v>
       </c>
@@ -12594,7 +12601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>4</v>
       </c>
@@ -12609,7 +12616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>4</v>
       </c>
@@ -12624,7 +12631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>4</v>
       </c>
@@ -12639,7 +12646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>4</v>
       </c>
@@ -12654,7 +12661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>4</v>
       </c>
@@ -12669,7 +12676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>4</v>
       </c>
@@ -12684,7 +12691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>4</v>
       </c>
@@ -12699,7 +12706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>4</v>
       </c>
@@ -12714,7 +12721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>4</v>
       </c>
@@ -12729,7 +12736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>4</v>
       </c>
@@ -12744,7 +12751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>4</v>
       </c>
@@ -12759,7 +12766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>4</v>
       </c>
@@ -12774,7 +12781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>4</v>
       </c>
@@ -12789,7 +12796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>4</v>
       </c>
@@ -12804,7 +12811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>4</v>
       </c>
@@ -12819,7 +12826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>4</v>
       </c>
@@ -12834,7 +12841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>4</v>
       </c>
@@ -12849,7 +12856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>4</v>
       </c>
@@ -12864,7 +12871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>4</v>
       </c>
@@ -12879,7 +12886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>4</v>
       </c>
@@ -12894,7 +12901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>4</v>
       </c>
@@ -12909,7 +12916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>4</v>
       </c>
@@ -12924,7 +12931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>4</v>
       </c>
@@ -12939,7 +12946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>4</v>
       </c>
@@ -12954,7 +12961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>4</v>
       </c>
@@ -12969,7 +12976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>4</v>
       </c>
@@ -12984,7 +12991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>4</v>
       </c>
@@ -12999,7 +13006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>4</v>
       </c>
@@ -13014,7 +13021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>4</v>
       </c>
@@ -13029,7 +13036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>4</v>
       </c>
@@ -13044,7 +13051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>4</v>
       </c>
@@ -13059,7 +13066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>4</v>
       </c>
@@ -13074,7 +13081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>4</v>
       </c>
@@ -13089,7 +13096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>4</v>
       </c>
@@ -13104,7 +13111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>4</v>
       </c>
@@ -13119,7 +13126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>4</v>
       </c>
@@ -13134,7 +13141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>4</v>
       </c>
@@ -13149,7 +13156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>4</v>
       </c>
@@ -13164,7 +13171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>4</v>
       </c>
@@ -13179,7 +13186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>4</v>
       </c>
@@ -13194,7 +13201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>4</v>
       </c>
@@ -13209,7 +13216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>4</v>
       </c>
@@ -13224,7 +13231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>4</v>
       </c>
@@ -13239,7 +13246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>4</v>
       </c>
@@ -13254,7 +13261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>4</v>
       </c>
@@ -13269,7 +13276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>4</v>
       </c>
@@ -13284,7 +13291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>4</v>
       </c>
@@ -13299,7 +13306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>4</v>
       </c>
@@ -13314,7 +13321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>4</v>
       </c>
@@ -13329,7 +13336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>4</v>
       </c>
@@ -13344,7 +13351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>4</v>
       </c>
@@ -13359,7 +13366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>4</v>
       </c>
@@ -13374,7 +13381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>4</v>
       </c>
@@ -13389,7 +13396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>4</v>
       </c>
@@ -13404,7 +13411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>4</v>
       </c>
@@ -13419,7 +13426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>4</v>
       </c>
@@ -13434,7 +13441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>4</v>
       </c>
@@ -13449,7 +13456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>4</v>
       </c>
@@ -13464,7 +13471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>4</v>
       </c>
@@ -13479,7 +13486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>4</v>
       </c>
@@ -13494,7 +13501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>4</v>
       </c>
@@ -13509,7 +13516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>4</v>
       </c>
@@ -13524,7 +13531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>4</v>
       </c>
@@ -13539,7 +13546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>4</v>
       </c>
@@ -13554,7 +13561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>4</v>
       </c>
@@ -13569,7 +13576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>4</v>
       </c>
@@ -13584,7 +13591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>4</v>
       </c>
@@ -13599,7 +13606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>4</v>
       </c>
@@ -13614,7 +13621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>4</v>
       </c>
@@ -13629,7 +13636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>4</v>
       </c>
@@ -13644,7 +13651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>4</v>
       </c>
@@ -13659,7 +13666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>4</v>
       </c>
@@ -13674,7 +13681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>4</v>
       </c>
@@ -13689,7 +13696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>4</v>
       </c>
@@ -13704,7 +13711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>4</v>
       </c>
@@ -13719,7 +13726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>4</v>
       </c>
@@ -13734,7 +13741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>4</v>
       </c>
@@ -13749,7 +13756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>4</v>
       </c>
@@ -13764,7 +13771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>4</v>
       </c>
@@ -13779,7 +13786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>4</v>
       </c>
@@ -13794,7 +13801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>4</v>
       </c>
@@ -13809,7 +13816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>4</v>
       </c>
@@ -13824,7 +13831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>4</v>
       </c>
@@ -13839,7 +13846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>4</v>
       </c>
@@ -13854,7 +13861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>4</v>
       </c>
@@ -13869,7 +13876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>4</v>
       </c>
@@ -13884,7 +13891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>4</v>
       </c>
@@ -13899,7 +13906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>4</v>
       </c>
@@ -13914,7 +13921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>4</v>
       </c>
@@ -13929,7 +13936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>4</v>
       </c>
@@ -13944,7 +13951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>4</v>
       </c>
@@ -13959,7 +13966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>4</v>
       </c>
@@ -13974,7 +13981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>4</v>
       </c>
@@ -13989,7 +13996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>4</v>
       </c>
@@ -14004,7 +14011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>4</v>
       </c>
@@ -14019,7 +14026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>4</v>
       </c>
@@ -14034,7 +14041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>4</v>
       </c>
@@ -14049,7 +14056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>4</v>
       </c>
@@ -14064,7 +14071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>4</v>
       </c>
@@ -14079,7 +14086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>4</v>
       </c>
@@ -14094,7 +14101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>4</v>
       </c>
@@ -14109,7 +14116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>4</v>
       </c>
@@ -14124,7 +14131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>4</v>
       </c>
@@ -14139,7 +14146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>4</v>
       </c>
@@ -14154,7 +14161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>4</v>
       </c>
@@ -14169,7 +14176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>4</v>
       </c>
@@ -14184,7 +14191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>4</v>
       </c>
@@ -14199,7 +14206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>4</v>
       </c>
@@ -14214,7 +14221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>4</v>
       </c>
@@ -14229,7 +14236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>4</v>
       </c>
@@ -14244,7 +14251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>4</v>
       </c>
@@ -14259,7 +14266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>4</v>
       </c>
@@ -14274,7 +14281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>4</v>
       </c>
@@ -14289,7 +14296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>4</v>
       </c>
@@ -14304,7 +14311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>4</v>
       </c>
@@ -14319,7 +14326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>4</v>
       </c>
@@ -14334,7 +14341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>4</v>
       </c>
@@ -14349,7 +14356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>4</v>
       </c>
@@ -14364,7 +14371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>4</v>
       </c>
@@ -14379,7 +14386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>4</v>
       </c>
@@ -14394,7 +14401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>4</v>
       </c>
@@ -14409,7 +14416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>4</v>
       </c>
@@ -14424,7 +14431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>4</v>
       </c>
@@ -14439,7 +14446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>4</v>
       </c>
@@ -14454,7 +14461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>4</v>
       </c>
@@ -14469,7 +14476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>4</v>
       </c>
@@ -14484,7 +14491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>4</v>
       </c>
@@ -14499,7 +14506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>4</v>
       </c>
@@ -14514,7 +14521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>4</v>
       </c>
@@ -14529,7 +14536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>4</v>
       </c>
@@ -14544,7 +14551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>4</v>
       </c>
@@ -14559,7 +14566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>4</v>
       </c>
@@ -14574,7 +14581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>4</v>
       </c>
@@ -14589,7 +14596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>4</v>
       </c>
@@ -14604,7 +14611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>4</v>
       </c>
@@ -14619,7 +14626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>4</v>
       </c>
@@ -14634,7 +14641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>4</v>
       </c>

--- a/ExcelFiles/Usage_MeasureGroups_Vs_Dimensions.xlsx
+++ b/ExcelFiles/Usage_MeasureGroups_Vs_Dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_car\CarilionCube\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC3B991-CA5E-482F-B02D-DA5FCA556E44}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AD4EBE-1C63-47D7-9057-6AB6C0D45B5C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17856" windowHeight="2580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,10 +984,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E885" totalsRowShown="0">
   <autoFilter ref="A1:E885" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Medication Order"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A22:E875">
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E885"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C518" sqref="C518"/>
+    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="B491" sqref="B491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1333,7 +1333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>4</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>4</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>4</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>4</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>4</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>4</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>4</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>4</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>4</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>4</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>4</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>4</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>4</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>4</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>4</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>4</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>4</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>4</v>
       </c>
@@ -14566,7 +14566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="880" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>4</v>
       </c>
